--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished in Sprint 3</t>
   </si>
   <si>
     <t xml:space="preserve">Manager</t>
@@ -488,7 +491,7 @@
     <numFmt numFmtId="165" formatCode="MMM\ DD"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -599,6 +602,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -690,7 +700,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,6 +901,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,7 +985,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1011,10 +1025,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822345810160595"/>
-          <c:y val="0.161975370696155"/>
-          <c:w val="0.88420921077298"/>
-          <c:h val="0.635586830862026"/>
+          <c:x val="0.0822397200349956"/>
+          <c:y val="0.161995727032801"/>
+          <c:w val="0.88413948256468"/>
+          <c:h val="0.635541033052658"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1090,24 +1104,24 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54119001"/>
-        <c:axId val="1723935"/>
+        <c:axId val="54191758"/>
+        <c:axId val="24490812"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54119001"/>
+        <c:axId val="54191758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1165,12 +1179,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723935"/>
+        <c:crossAx val="24490812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1723935"/>
+        <c:axId val="24490812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1236,7 +1250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54119001"/>
+        <c:crossAx val="54191758"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1263,7 +1277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1371,11 +1385,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="36571502"/>
-        <c:axId val="70395829"/>
+        <c:axId val="13423203"/>
+        <c:axId val="36647191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36571502"/>
+        <c:axId val="13423203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,14 +1445,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70395829"/>
+        <c:crossAx val="36647191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70395829"/>
+        <c:axId val="36647191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1517,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36571502"/>
+        <c:crossAx val="13423203"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1530,7 +1544,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1638,11 +1652,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="90987899"/>
-        <c:axId val="2952348"/>
+        <c:axId val="21209708"/>
+        <c:axId val="78949707"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90987899"/>
+        <c:axId val="21209708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,14 +1712,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2952348"/>
+        <c:crossAx val="78949707"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2952348"/>
+        <c:axId val="78949707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90987899"/>
+        <c:crossAx val="21209708"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1797,7 +1811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1869,28 +1883,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,11 +1919,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="53968685"/>
-        <c:axId val="928228"/>
+        <c:axId val="72637320"/>
+        <c:axId val="23094173"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53968685"/>
+        <c:axId val="72637320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1979,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928228"/>
+        <c:crossAx val="23094173"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928228"/>
+        <c:axId val="23094173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2051,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53968685"/>
+        <c:crossAx val="72637320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,7 +2078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2172,11 +2186,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="89719014"/>
-        <c:axId val="79987143"/>
+        <c:axId val="72041082"/>
+        <c:axId val="33256024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89719014"/>
+        <c:axId val="72041082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,14 +2246,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79987143"/>
+        <c:crossAx val="33256024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79987143"/>
+        <c:axId val="33256024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2318,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89719014"/>
+        <c:crossAx val="72041082"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2342,9 +2356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:colOff>1904400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2353,7 +2367,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9117720" y="266760"/>
-        <a:ext cx="5760720" cy="2864520"/>
+        <a:ext cx="5760360" cy="2864160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2377,9 +2391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1772280</xdr:colOff>
+      <xdr:colOff>1771920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2388,7 +2402,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448920"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2412,9 +2426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>56880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2423,7 +2437,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448920"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2447,9 +2461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2458,7 +2472,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2482,9 +2496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2493,7 +2507,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2514,8 +2528,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2771,11 +2785,11 @@
       </c>
       <c r="B15" s="3" t="n">
         <f aca="false">B14-C15</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
@@ -2795,7 +2809,7 @@
       </c>
       <c r="B16" s="3" t="n">
         <f aca="false">B15-C16</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -2815,7 +2829,7 @@
       </c>
       <c r="B17" s="3" t="n">
         <f aca="false">B16-C17</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3198,24 +3212,28 @@
       <c r="E32" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="H32" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>10</v>
@@ -3227,24 +3245,28 @@
       <c r="E33" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="F33" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>11</v>
@@ -3256,24 +3278,28 @@
       <c r="E34" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="F34" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="27" t="n">
         <v>12</v>
@@ -3288,19 +3314,19 @@
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
       <c r="H35" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" s="25"/>
     </row>
     <row r="36" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="27" t="n">
         <v>13</v>
@@ -3318,10 +3344,10 @@
         <v>34</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -3348,7 +3374,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="24"/>
       <c r="I38" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -3368,7 +3394,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>14</v>
@@ -3383,21 +3409,21 @@
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
       <c r="H40" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>15</v>
@@ -3412,19 +3438,19 @@
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41" s="25"/>
     </row>
     <row r="42" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>16</v>
@@ -3442,16 +3468,16 @@
         <v>34</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" s="25"/>
     </row>
     <row r="43" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>17</v>
@@ -3469,16 +3495,16 @@
         <v>34</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" s="25"/>
     </row>
     <row r="44" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>18</v>
@@ -3496,16 +3522,16 @@
         <v>34</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>19</v>
@@ -3520,21 +3546,21 @@
       <c r="F45" s="22"/>
       <c r="G45" s="23"/>
       <c r="H45" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>20</v>
@@ -3549,21 +3575,21 @@
       <c r="F46" s="22"/>
       <c r="G46" s="23"/>
       <c r="H46" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>21</v>
@@ -3581,18 +3607,18 @@
         <v>38</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>22</v>
@@ -3607,16 +3633,16 @@
       <c r="F48" s="22"/>
       <c r="G48" s="23"/>
       <c r="H48" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4339,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -4346,14 +4372,14 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="37" t="n">
         <v>43893</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="35"/>
@@ -4362,7 +4388,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+21</f>
@@ -4377,10 +4403,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -4405,7 +4431,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -4415,7 +4441,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -4430,7 +4456,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -4448,7 +4474,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -4466,7 +4492,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -4484,7 +4510,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -4502,7 +4528,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -4520,7 +4546,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -4538,7 +4564,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -4566,16 +4592,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -4593,13 +4619,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,13 +4637,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4629,13 +4655,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,10 +4673,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="46"/>
     </row>
@@ -4663,10 +4689,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>135</v>
       </c>
       <c r="F21" s="46"/>
     </row>
@@ -4679,10 +4705,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="46"/>
     </row>
@@ -4695,10 +4721,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="46"/>
     </row>
@@ -4711,10 +4737,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="46"/>
     </row>
@@ -4727,10 +4753,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="46"/>
     </row>
@@ -4743,10 +4769,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="46"/>
     </row>
@@ -4759,10 +4785,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F27" s="46"/>
     </row>
@@ -4775,10 +4801,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" s="46"/>
     </row>
@@ -4791,10 +4817,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" s="46"/>
     </row>
@@ -4807,10 +4833,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="46"/>
     </row>
@@ -4823,10 +4849,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="46"/>
     </row>
@@ -4839,10 +4865,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" s="46"/>
     </row>
@@ -5605,7 +5631,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 01 Backlog'!B3</f>
@@ -5613,7 +5639,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -5622,7 +5648,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+7</f>
@@ -5637,10 +5663,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -5665,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -5675,7 +5701,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -5690,7 +5716,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -5708,7 +5734,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -5726,7 +5752,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -5744,7 +5770,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -5762,7 +5788,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -5780,7 +5806,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -5798,7 +5824,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -5826,16 +5852,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -5856,7 +5882,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" s="46"/>
     </row>
@@ -5868,11 +5894,11 @@
         <v>52</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="44" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="46"/>
     </row>
@@ -5884,11 +5910,11 @@
         <v>56</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="44" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F19" s="46"/>
     </row>
@@ -5900,11 +5926,11 @@
         <v>60</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="46"/>
     </row>
@@ -6753,8 +6779,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6787,7 +6813,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 02 Backlog'!B2+7</f>
@@ -6795,7 +6821,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -6804,7 +6830,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+7</f>
@@ -6819,10 +6845,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -6847,7 +6873,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -6857,11 +6883,11 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -6872,11 +6898,11 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -6890,11 +6916,11 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -6908,11 +6934,11 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6926,15 +6952,15 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -6944,15 +6970,15 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -6962,11 +6988,11 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6980,11 +7006,11 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -7008,16 +7034,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -7030,32 +7056,48 @@
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="47"/>
+      <c r="D17" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>149</v>
+      </c>
       <c r="F17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
+      <c r="D18" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>150</v>
+      </c>
       <c r="F18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>150</v>
+      </c>
       <c r="F19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7107,7 @@
       <c r="B20" s="43"/>
       <c r="C20" s="1"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,7 +7117,7 @@
       <c r="B21" s="43"/>
       <c r="C21" s="1"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7085,7 +7127,7 @@
       <c r="B22" s="43"/>
       <c r="C22" s="1"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7137,7 @@
       <c r="B23" s="43"/>
       <c r="C23" s="1"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,7 +7147,7 @@
       <c r="B24" s="43"/>
       <c r="C24" s="1"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7157,7 @@
       <c r="B25" s="43"/>
       <c r="C25" s="1"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,7 +7167,7 @@
       <c r="B26" s="43"/>
       <c r="C26" s="1"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,7 +7177,7 @@
       <c r="B27" s="43"/>
       <c r="C27" s="1"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="47"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7145,7 +7187,7 @@
       <c r="B28" s="43"/>
       <c r="C28" s="1"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,7 +7197,7 @@
       <c r="B29" s="43"/>
       <c r="C29" s="1"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7165,7 +7207,7 @@
       <c r="B30" s="43"/>
       <c r="C30" s="1"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7217,7 @@
       <c r="B31" s="43"/>
       <c r="C31" s="1"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7185,7 +7227,7 @@
       <c r="B32" s="43"/>
       <c r="C32" s="1"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,7 +7237,7 @@
       <c r="B33" s="43"/>
       <c r="C33" s="1"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,7 +7247,7 @@
       <c r="B34" s="43"/>
       <c r="C34" s="1"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7257,7 @@
       <c r="B35" s="43"/>
       <c r="C35" s="1"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="47"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,7 +7267,7 @@
       <c r="B36" s="43"/>
       <c r="C36" s="1"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="47"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7277,7 @@
       <c r="B37" s="43"/>
       <c r="C37" s="1"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7245,7 +7287,7 @@
       <c r="B38" s="43"/>
       <c r="C38" s="1"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="47"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +7297,7 @@
       <c r="B39" s="43"/>
       <c r="C39" s="1"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="47"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7307,7 @@
       <c r="B40" s="43"/>
       <c r="C40" s="1"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="47"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,7 +7317,7 @@
       <c r="B41" s="43"/>
       <c r="C41" s="1"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7327,7 @@
       <c r="B42" s="43"/>
       <c r="C42" s="1"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="47"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,7 +7337,7 @@
       <c r="B43" s="43"/>
       <c r="C43" s="1"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="47"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7305,7 +7347,7 @@
       <c r="B44" s="43"/>
       <c r="C44" s="1"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="47"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +7357,7 @@
       <c r="B45" s="43"/>
       <c r="C45" s="1"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="47"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7367,7 @@
       <c r="B46" s="43"/>
       <c r="C46" s="1"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="47"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,7 +7377,7 @@
       <c r="B47" s="43"/>
       <c r="C47" s="1"/>
       <c r="D47" s="44"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,7 +7387,7 @@
       <c r="B48" s="43"/>
       <c r="C48" s="1"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="47"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="46"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7397,7 @@
       <c r="B49" s="43"/>
       <c r="C49" s="1"/>
       <c r="D49" s="44"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,7 +7407,7 @@
       <c r="B50" s="43"/>
       <c r="C50" s="1"/>
       <c r="D50" s="44"/>
-      <c r="E50" s="47"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,7 +7417,7 @@
       <c r="B51" s="43"/>
       <c r="C51" s="1"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="47"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="46"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7385,7 +7427,7 @@
       <c r="B52" s="43"/>
       <c r="C52" s="1"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,7 +7437,7 @@
       <c r="B53" s="43"/>
       <c r="C53" s="1"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="47"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7447,7 @@
       <c r="B54" s="43"/>
       <c r="C54" s="1"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,7 +7457,7 @@
       <c r="B55" s="43"/>
       <c r="C55" s="1"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="47"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7425,7 +7467,7 @@
       <c r="B56" s="43"/>
       <c r="C56" s="1"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="47"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,7 +7477,7 @@
       <c r="B57" s="43"/>
       <c r="C57" s="1"/>
       <c r="D57" s="44"/>
-      <c r="E57" s="47"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,7 +7487,7 @@
       <c r="B58" s="43"/>
       <c r="C58" s="1"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="47"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +7497,7 @@
       <c r="B59" s="43"/>
       <c r="C59" s="1"/>
       <c r="D59" s="44"/>
-      <c r="E59" s="47"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,7 +7507,7 @@
       <c r="B60" s="43"/>
       <c r="C60" s="1"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="47"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7475,7 +7517,7 @@
       <c r="B61" s="43"/>
       <c r="C61" s="1"/>
       <c r="D61" s="44"/>
-      <c r="E61" s="47"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,7 +7527,7 @@
       <c r="B62" s="43"/>
       <c r="C62" s="1"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="47"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,7 +7537,7 @@
       <c r="B63" s="43"/>
       <c r="C63" s="1"/>
       <c r="D63" s="44"/>
-      <c r="E63" s="47"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,7 +7547,7 @@
       <c r="B64" s="43"/>
       <c r="C64" s="1"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="47"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7515,7 +7557,7 @@
       <c r="B65" s="43"/>
       <c r="C65" s="1"/>
       <c r="D65" s="44"/>
-      <c r="E65" s="47"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,7 +7567,7 @@
       <c r="B66" s="43"/>
       <c r="C66" s="1"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="47"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +7577,7 @@
       <c r="B67" s="43"/>
       <c r="C67" s="1"/>
       <c r="D67" s="44"/>
-      <c r="E67" s="47"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,7 +7587,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="1"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="47"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,7 +7597,7 @@
       <c r="B69" s="43"/>
       <c r="C69" s="1"/>
       <c r="D69" s="44"/>
-      <c r="E69" s="47"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7607,7 @@
       <c r="B70" s="43"/>
       <c r="C70" s="1"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="47"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,7 +7617,7 @@
       <c r="B71" s="43"/>
       <c r="C71" s="1"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="47"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7585,7 +7627,7 @@
       <c r="B72" s="43"/>
       <c r="C72" s="1"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="47"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7595,7 +7637,7 @@
       <c r="B73" s="43"/>
       <c r="C73" s="1"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="47"/>
+      <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,7 +7647,7 @@
       <c r="B74" s="43"/>
       <c r="C74" s="1"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="47"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,7 +7657,7 @@
       <c r="B75" s="43"/>
       <c r="C75" s="1"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="47"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="46"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,7 +7667,7 @@
       <c r="B76" s="43"/>
       <c r="C76" s="1"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="47"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="46"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,7 +7677,7 @@
       <c r="B77" s="43"/>
       <c r="C77" s="1"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="47"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="46"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,7 +7687,7 @@
       <c r="B78" s="43"/>
       <c r="C78" s="1"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="47"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="46"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7697,7 @@
       <c r="B79" s="43"/>
       <c r="C79" s="1"/>
       <c r="D79" s="44"/>
-      <c r="E79" s="47"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="46"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,7 +7707,7 @@
       <c r="B80" s="43"/>
       <c r="C80" s="1"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="46"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +7717,7 @@
       <c r="B81" s="43"/>
       <c r="C81" s="1"/>
       <c r="D81" s="44"/>
-      <c r="E81" s="47"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +7727,7 @@
       <c r="B82" s="43"/>
       <c r="C82" s="1"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="47"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="46"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,7 +7737,7 @@
       <c r="B83" s="43"/>
       <c r="C83" s="1"/>
       <c r="D83" s="44"/>
-      <c r="E83" s="47"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7747,7 @@
       <c r="B84" s="43"/>
       <c r="C84" s="1"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="47"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="46"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,7 +7757,7 @@
       <c r="B85" s="43"/>
       <c r="C85" s="1"/>
       <c r="D85" s="44"/>
-      <c r="E85" s="47"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,7 +7767,7 @@
       <c r="B86" s="43"/>
       <c r="C86" s="1"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="47"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,7 +7777,7 @@
       <c r="B87" s="43"/>
       <c r="C87" s="1"/>
       <c r="D87" s="44"/>
-      <c r="E87" s="47"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,7 +7787,7 @@
       <c r="B88" s="43"/>
       <c r="C88" s="1"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="47"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="46"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7755,7 +7797,7 @@
       <c r="B89" s="43"/>
       <c r="C89" s="1"/>
       <c r="D89" s="44"/>
-      <c r="E89" s="47"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,7 +7807,7 @@
       <c r="B90" s="43"/>
       <c r="C90" s="1"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="47"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="46"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,7 +7817,7 @@
       <c r="B91" s="43"/>
       <c r="C91" s="1"/>
       <c r="D91" s="44"/>
-      <c r="E91" s="47"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="46"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,7 +7827,7 @@
       <c r="B92" s="43"/>
       <c r="C92" s="1"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="47"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="46"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,7 +7837,7 @@
       <c r="B93" s="43"/>
       <c r="C93" s="1"/>
       <c r="D93" s="44"/>
-      <c r="E93" s="47"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7847,7 @@
       <c r="B94" s="43"/>
       <c r="C94" s="1"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="47"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="46"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7815,7 +7857,7 @@
       <c r="B95" s="43"/>
       <c r="C95" s="1"/>
       <c r="D95" s="44"/>
-      <c r="E95" s="47"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="46"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,7 +7867,7 @@
       <c r="B96" s="43"/>
       <c r="C96" s="1"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="47"/>
+      <c r="E96" s="49"/>
       <c r="F96" s="46"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7877,7 @@
       <c r="B97" s="43"/>
       <c r="C97" s="1"/>
       <c r="D97" s="44"/>
-      <c r="E97" s="47"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="46"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +7887,7 @@
       <c r="B98" s="43"/>
       <c r="C98" s="1"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="47"/>
+      <c r="E98" s="49"/>
       <c r="F98" s="46"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7855,7 +7897,7 @@
       <c r="B99" s="43"/>
       <c r="C99" s="1"/>
       <c r="D99" s="44"/>
-      <c r="E99" s="47"/>
+      <c r="E99" s="49"/>
       <c r="F99" s="46"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7865,7 +7907,7 @@
       <c r="B100" s="43"/>
       <c r="C100" s="1"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="47"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="46"/>
     </row>
   </sheetData>
@@ -7947,7 +7989,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 03 Backlog'!B2+14</f>
@@ -7955,7 +7997,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -7964,7 +8006,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+14</f>
@@ -7979,10 +8021,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -8007,7 +8049,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -8017,7 +8059,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -8032,7 +8074,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -8050,7 +8092,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -8068,7 +8110,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -8086,7 +8128,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -8104,7 +8146,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -8122,7 +8164,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -8140,7 +8182,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -8168,16 +8210,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -8192,12 +8234,12 @@
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="51" t="s">
-        <v>150</v>
+      <c r="D17" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="154">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -254,6 +254,9 @@
     <t xml:space="preserve">QRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Finished in Sprint 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customer</t>
   </si>
   <si>
@@ -479,7 +482,10 @@
     <t xml:space="preserve">Completed Day 5</t>
   </si>
   <si>
-    <t xml:space="preserve">--&gt; Add tasks to complete each feature for this sprint</t>
+    <t xml:space="preserve">Completed Day 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store and display additional disk  data</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
     <numFmt numFmtId="165" formatCode="MMM\ DD"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -604,12 +610,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -700,7 +700,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,15 +901,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,7 +981,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1025,10 +1021,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822397200349956"/>
-          <c:y val="0.161995727032801"/>
-          <c:w val="0.88413948256468"/>
-          <c:h val="0.635541033052658"/>
+          <c:x val="0.082244859696269"/>
+          <c:y val="0.162016088486677"/>
+          <c:w val="0.884069745640897"/>
+          <c:h val="0.635495223730518"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1107,21 +1103,21 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54191758"/>
-        <c:axId val="24490812"/>
+        <c:axId val="47685837"/>
+        <c:axId val="30220542"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54191758"/>
+        <c:axId val="47685837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1179,12 +1175,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24490812"/>
+        <c:crossAx val="30220542"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24490812"/>
+        <c:axId val="30220542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1250,7 +1246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54191758"/>
+        <c:crossAx val="47685837"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1277,7 +1273,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1385,11 +1381,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="13423203"/>
-        <c:axId val="36647191"/>
+        <c:axId val="55850751"/>
+        <c:axId val="89800733"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13423203"/>
+        <c:axId val="55850751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,14 +1441,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36647191"/>
+        <c:crossAx val="89800733"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36647191"/>
+        <c:axId val="89800733"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13423203"/>
+        <c:crossAx val="55850751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1544,7 +1540,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1652,11 +1648,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="21209708"/>
-        <c:axId val="78949707"/>
+        <c:axId val="36068229"/>
+        <c:axId val="45198188"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21209708"/>
+        <c:axId val="36068229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,14 +1708,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78949707"/>
+        <c:crossAx val="45198188"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78949707"/>
+        <c:axId val="45198188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21209708"/>
+        <c:crossAx val="36068229"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1811,7 +1807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1919,11 +1915,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="72637320"/>
-        <c:axId val="23094173"/>
+        <c:axId val="90569644"/>
+        <c:axId val="2429515"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72637320"/>
+        <c:axId val="90569644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,14 +1975,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23094173"/>
+        <c:crossAx val="2429515"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23094173"/>
+        <c:axId val="2429515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72637320"/>
+        <c:crossAx val="90569644"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2078,7 +2074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2150,28 +2146,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,11 +2182,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="72041082"/>
-        <c:axId val="33256024"/>
+        <c:axId val="28477714"/>
+        <c:axId val="54112488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72041082"/>
+        <c:axId val="28477714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,14 +2242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33256024"/>
+        <c:crossAx val="54112488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33256024"/>
+        <c:axId val="54112488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72041082"/>
+        <c:crossAx val="28477714"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2356,9 +2352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1904040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2367,7 +2363,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9117720" y="266760"/>
-        <a:ext cx="5760360" cy="2864160"/>
+        <a:ext cx="5760000" cy="2863800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2391,9 +2387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1771920</xdr:colOff>
+      <xdr:colOff>1771560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2402,7 +2398,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448920"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2426,9 +2422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2437,7 +2433,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448920"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2461,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2472,7 +2468,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2496,9 +2492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2507,7 +2503,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2528,8 +2524,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2809,11 +2805,11 @@
       </c>
       <c r="B16" s="3" t="n">
         <f aca="false">B15-C16</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -2829,11 +2825,11 @@
       </c>
       <c r="B17" s="3" t="n">
         <f aca="false">B16-C17</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -3311,22 +3307,26 @@
       <c r="E35" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="F35" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="H35" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K35" s="25"/>
     </row>
     <row r="36" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="27" t="n">
         <v>13</v>
@@ -3338,16 +3338,20 @@
       <c r="E36" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="H36" s="24" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -3374,7 +3378,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="24"/>
       <c r="I38" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -3394,7 +3398,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>14</v>
@@ -3406,24 +3410,28 @@
       <c r="E40" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="H40" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>15</v>
@@ -3435,22 +3443,26 @@
       <c r="E41" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
+      <c r="F41" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="H41" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K41" s="25"/>
     </row>
     <row r="42" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>16</v>
@@ -3468,16 +3480,16 @@
         <v>34</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42" s="25"/>
     </row>
     <row r="43" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>17</v>
@@ -3495,16 +3507,16 @@
         <v>34</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K43" s="25"/>
     </row>
     <row r="44" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>18</v>
@@ -3522,16 +3534,16 @@
         <v>34</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>19</v>
@@ -3546,21 +3558,21 @@
       <c r="F45" s="22"/>
       <c r="G45" s="23"/>
       <c r="H45" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>20</v>
@@ -3575,21 +3587,21 @@
       <c r="F46" s="22"/>
       <c r="G46" s="23"/>
       <c r="H46" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>21</v>
@@ -3607,18 +3619,18 @@
         <v>38</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>22</v>
@@ -3636,13 +3648,13 @@
         <v>66</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,14 +4384,14 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="37" t="n">
         <v>43893</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="35"/>
@@ -4388,7 +4400,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+21</f>
@@ -4403,10 +4415,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -4431,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -4441,7 +4453,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -4456,7 +4468,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -4474,7 +4486,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -4492,7 +4504,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -4510,7 +4522,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -4528,7 +4540,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -4546,7 +4558,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -4564,7 +4576,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -4592,16 +4604,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -4619,13 +4631,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,13 +4649,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,13 +4667,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,10 +4685,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="46"/>
     </row>
@@ -4689,10 +4701,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>136</v>
       </c>
       <c r="F21" s="46"/>
     </row>
@@ -4705,10 +4717,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="46"/>
     </row>
@@ -4721,10 +4733,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="46"/>
     </row>
@@ -4737,10 +4749,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="46"/>
     </row>
@@ -4753,10 +4765,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="46"/>
     </row>
@@ -4769,10 +4781,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="46"/>
     </row>
@@ -4785,10 +4797,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27" s="46"/>
     </row>
@@ -4801,10 +4813,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="46"/>
     </row>
@@ -4817,10 +4829,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F29" s="46"/>
     </row>
@@ -4833,10 +4845,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30" s="46"/>
     </row>
@@ -4849,10 +4861,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="46"/>
     </row>
@@ -4865,10 +4877,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F32" s="46"/>
     </row>
@@ -5631,7 +5643,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 01 Backlog'!B3</f>
@@ -5639,7 +5651,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -5648,7 +5660,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+7</f>
@@ -5663,10 +5675,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -5691,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -5701,7 +5713,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -5716,7 +5728,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -5734,7 +5746,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -5752,7 +5764,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -5770,7 +5782,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -5788,7 +5800,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -5806,7 +5818,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -5824,7 +5836,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -5852,16 +5864,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -5882,7 +5894,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" s="46"/>
     </row>
@@ -5898,7 +5910,7 @@
         <v>53</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F18" s="46"/>
     </row>
@@ -5914,7 +5926,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="46"/>
     </row>
@@ -5930,7 +5942,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="46"/>
     </row>
@@ -6779,7 +6791,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6813,7 +6825,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 02 Backlog'!B2+7</f>
@@ -6821,7 +6833,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -6830,7 +6842,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+7</f>
@@ -6845,10 +6857,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -6873,7 +6885,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -6883,7 +6895,7 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -6898,7 +6910,7 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
@@ -6916,7 +6928,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
@@ -6934,7 +6946,7 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
@@ -6952,7 +6964,7 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
@@ -6970,7 +6982,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
@@ -6988,7 +7000,7 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
@@ -7006,7 +7018,7 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
@@ -7034,16 +7046,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -7060,11 +7072,11 @@
         <v>64</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F17" s="46"/>
     </row>
@@ -7076,11 +7088,11 @@
         <v>70</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="44" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" s="46"/>
     </row>
@@ -7092,11 +7104,11 @@
         <v>73</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="44" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="46"/>
     </row>
@@ -7955,8 +7967,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7989,7 +8001,7 @@
     </row>
     <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="37" t="n">
         <f aca="false">'Sprint 03 Backlog'!B2+14</f>
@@ -7997,7 +8009,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -8006,7 +8018,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="37" t="n">
         <f aca="false">B2+14</f>
@@ -8021,10 +8033,10 @@
     </row>
     <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -8049,7 +8061,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -8059,11 +8071,11 @@
     </row>
     <row r="7" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="33" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -8074,11 +8086,11 @@
     </row>
     <row r="8" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33" t="n">
         <f aca="false">B7-C8</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8092,11 +8104,11 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33" t="n">
         <f aca="false">B8-C9</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8110,11 +8122,11 @@
     </row>
     <row r="10" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="33" t="n">
         <f aca="false">B9-C10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8128,15 +8140,15 @@
     </row>
     <row r="11" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="33" t="n">
         <f aca="false">B10-C11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -8146,15 +8158,15 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="33" t="n">
         <f aca="false">B11-C12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -8164,15 +8176,15 @@
     </row>
     <row r="13" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="33" t="n">
         <f aca="false">B12-C13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -8182,11 +8194,11 @@
     </row>
     <row r="14" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="33" t="n">
         <f aca="false">B13-C14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="33" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8210,16 +8222,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>27</v>
@@ -8232,44 +8244,66 @@
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="47"/>
       <c r="F17" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
+      <c r="D18" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>150</v>
+      </c>
       <c r="F18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>152</v>
+      </c>
       <c r="F19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="47"/>
+      <c r="D20" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>152</v>
+      </c>
       <c r="F20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8279,7 +8313,7 @@
       <c r="B21" s="43"/>
       <c r="C21" s="1"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8289,7 +8323,7 @@
       <c r="B22" s="43"/>
       <c r="C22" s="1"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,7 +8333,7 @@
       <c r="B23" s="43"/>
       <c r="C23" s="1"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +8343,7 @@
       <c r="B24" s="43"/>
       <c r="C24" s="1"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,7 +8353,7 @@
       <c r="B25" s="43"/>
       <c r="C25" s="1"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,7 +8363,7 @@
       <c r="B26" s="43"/>
       <c r="C26" s="1"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,7 +8373,7 @@
       <c r="B27" s="43"/>
       <c r="C27" s="1"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="47"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,7 +8383,7 @@
       <c r="B28" s="43"/>
       <c r="C28" s="1"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8359,7 +8393,7 @@
       <c r="B29" s="43"/>
       <c r="C29" s="1"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +8403,7 @@
       <c r="B30" s="43"/>
       <c r="C30" s="1"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,7 +8413,7 @@
       <c r="B31" s="43"/>
       <c r="C31" s="1"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,7 +8423,7 @@
       <c r="B32" s="43"/>
       <c r="C32" s="1"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,7 +8433,7 @@
       <c r="B33" s="43"/>
       <c r="C33" s="1"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,7 +8443,7 @@
       <c r="B34" s="43"/>
       <c r="C34" s="1"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,7 +8453,7 @@
       <c r="B35" s="43"/>
       <c r="C35" s="1"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="47"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,7 +8463,7 @@
       <c r="B36" s="43"/>
       <c r="C36" s="1"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="47"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,7 +8473,7 @@
       <c r="B37" s="43"/>
       <c r="C37" s="1"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8449,7 +8483,7 @@
       <c r="B38" s="43"/>
       <c r="C38" s="1"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="47"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8459,7 +8493,7 @@
       <c r="B39" s="43"/>
       <c r="C39" s="1"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="47"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,7 +8503,7 @@
       <c r="B40" s="43"/>
       <c r="C40" s="1"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="47"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,7 +8513,7 @@
       <c r="B41" s="43"/>
       <c r="C41" s="1"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,7 +8523,7 @@
       <c r="B42" s="43"/>
       <c r="C42" s="1"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="47"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,7 +8533,7 @@
       <c r="B43" s="43"/>
       <c r="C43" s="1"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="47"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8509,7 +8543,7 @@
       <c r="B44" s="43"/>
       <c r="C44" s="1"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="47"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8519,7 +8553,7 @@
       <c r="B45" s="43"/>
       <c r="C45" s="1"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="47"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +8563,7 @@
       <c r="B46" s="43"/>
       <c r="C46" s="1"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="47"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8539,7 +8573,7 @@
       <c r="B47" s="43"/>
       <c r="C47" s="1"/>
       <c r="D47" s="44"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,7 +8583,7 @@
       <c r="B48" s="43"/>
       <c r="C48" s="1"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="47"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="46"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8559,7 +8593,7 @@
       <c r="B49" s="43"/>
       <c r="C49" s="1"/>
       <c r="D49" s="44"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,7 +8603,7 @@
       <c r="B50" s="43"/>
       <c r="C50" s="1"/>
       <c r="D50" s="44"/>
-      <c r="E50" s="47"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,7 +8613,7 @@
       <c r="B51" s="43"/>
       <c r="C51" s="1"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="47"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="46"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,7 +8623,7 @@
       <c r="B52" s="43"/>
       <c r="C52" s="1"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,7 +8633,7 @@
       <c r="B53" s="43"/>
       <c r="C53" s="1"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="47"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +8643,7 @@
       <c r="B54" s="43"/>
       <c r="C54" s="1"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8619,7 +8653,7 @@
       <c r="B55" s="43"/>
       <c r="C55" s="1"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="47"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8629,7 +8663,7 @@
       <c r="B56" s="43"/>
       <c r="C56" s="1"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="47"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,7 +8673,7 @@
       <c r="B57" s="43"/>
       <c r="C57" s="1"/>
       <c r="D57" s="44"/>
-      <c r="E57" s="47"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8649,7 +8683,7 @@
       <c r="B58" s="43"/>
       <c r="C58" s="1"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="47"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +8693,7 @@
       <c r="B59" s="43"/>
       <c r="C59" s="1"/>
       <c r="D59" s="44"/>
-      <c r="E59" s="47"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8669,7 +8703,7 @@
       <c r="B60" s="43"/>
       <c r="C60" s="1"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="47"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8679,7 +8713,7 @@
       <c r="B61" s="43"/>
       <c r="C61" s="1"/>
       <c r="D61" s="44"/>
-      <c r="E61" s="47"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,7 +8723,7 @@
       <c r="B62" s="43"/>
       <c r="C62" s="1"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="47"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,7 +8733,7 @@
       <c r="B63" s="43"/>
       <c r="C63" s="1"/>
       <c r="D63" s="44"/>
-      <c r="E63" s="47"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,7 +8743,7 @@
       <c r="B64" s="43"/>
       <c r="C64" s="1"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="47"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,7 +8753,7 @@
       <c r="B65" s="43"/>
       <c r="C65" s="1"/>
       <c r="D65" s="44"/>
-      <c r="E65" s="47"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,7 +8763,7 @@
       <c r="B66" s="43"/>
       <c r="C66" s="1"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="47"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,7 +8773,7 @@
       <c r="B67" s="43"/>
       <c r="C67" s="1"/>
       <c r="D67" s="44"/>
-      <c r="E67" s="47"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8749,7 +8783,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="1"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="47"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8759,7 +8793,7 @@
       <c r="B69" s="43"/>
       <c r="C69" s="1"/>
       <c r="D69" s="44"/>
-      <c r="E69" s="47"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,7 +8803,7 @@
       <c r="B70" s="43"/>
       <c r="C70" s="1"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="47"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,7 +8813,7 @@
       <c r="B71" s="43"/>
       <c r="C71" s="1"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="47"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,7 +8823,7 @@
       <c r="B72" s="43"/>
       <c r="C72" s="1"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="47"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +8833,7 @@
       <c r="B73" s="43"/>
       <c r="C73" s="1"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="47"/>
+      <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,7 +8843,7 @@
       <c r="B74" s="43"/>
       <c r="C74" s="1"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="47"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,7 +8853,7 @@
       <c r="B75" s="43"/>
       <c r="C75" s="1"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="47"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="46"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,7 +8863,7 @@
       <c r="B76" s="43"/>
       <c r="C76" s="1"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="47"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="46"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8839,7 +8873,7 @@
       <c r="B77" s="43"/>
       <c r="C77" s="1"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="47"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="46"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8849,7 +8883,7 @@
       <c r="B78" s="43"/>
       <c r="C78" s="1"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="47"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="46"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8859,7 +8893,7 @@
       <c r="B79" s="43"/>
       <c r="C79" s="1"/>
       <c r="D79" s="44"/>
-      <c r="E79" s="47"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="46"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8869,7 +8903,7 @@
       <c r="B80" s="43"/>
       <c r="C80" s="1"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="46"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8879,7 +8913,7 @@
       <c r="B81" s="43"/>
       <c r="C81" s="1"/>
       <c r="D81" s="44"/>
-      <c r="E81" s="47"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,7 +8923,7 @@
       <c r="B82" s="43"/>
       <c r="C82" s="1"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="47"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="46"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,7 +8933,7 @@
       <c r="B83" s="43"/>
       <c r="C83" s="1"/>
       <c r="D83" s="44"/>
-      <c r="E83" s="47"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,7 +8943,7 @@
       <c r="B84" s="43"/>
       <c r="C84" s="1"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="47"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="46"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,7 +8953,7 @@
       <c r="B85" s="43"/>
       <c r="C85" s="1"/>
       <c r="D85" s="44"/>
-      <c r="E85" s="47"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,7 +8963,7 @@
       <c r="B86" s="43"/>
       <c r="C86" s="1"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="47"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8939,7 +8973,7 @@
       <c r="B87" s="43"/>
       <c r="C87" s="1"/>
       <c r="D87" s="44"/>
-      <c r="E87" s="47"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,7 +8983,7 @@
       <c r="B88" s="43"/>
       <c r="C88" s="1"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="47"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="46"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8959,7 +8993,7 @@
       <c r="B89" s="43"/>
       <c r="C89" s="1"/>
       <c r="D89" s="44"/>
-      <c r="E89" s="47"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,7 +9003,7 @@
       <c r="B90" s="43"/>
       <c r="C90" s="1"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="47"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="46"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,7 +9013,7 @@
       <c r="B91" s="43"/>
       <c r="C91" s="1"/>
       <c r="D91" s="44"/>
-      <c r="E91" s="47"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="46"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8989,7 +9023,7 @@
       <c r="B92" s="43"/>
       <c r="C92" s="1"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="47"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="46"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,7 +9033,7 @@
       <c r="B93" s="43"/>
       <c r="C93" s="1"/>
       <c r="D93" s="44"/>
-      <c r="E93" s="47"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9009,7 +9043,7 @@
       <c r="B94" s="43"/>
       <c r="C94" s="1"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="47"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="46"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9019,7 +9053,7 @@
       <c r="B95" s="43"/>
       <c r="C95" s="1"/>
       <c r="D95" s="44"/>
-      <c r="E95" s="47"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="46"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,7 +9063,7 @@
       <c r="B96" s="43"/>
       <c r="C96" s="1"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="47"/>
+      <c r="E96" s="49"/>
       <c r="F96" s="46"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9073,7 @@
       <c r="B97" s="43"/>
       <c r="C97" s="1"/>
       <c r="D97" s="44"/>
-      <c r="E97" s="47"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="46"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9049,7 +9083,7 @@
       <c r="B98" s="43"/>
       <c r="C98" s="1"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="47"/>
+      <c r="E98" s="49"/>
       <c r="F98" s="46"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,7 +9093,7 @@
       <c r="B99" s="43"/>
       <c r="C99" s="1"/>
       <c r="D99" s="44"/>
-      <c r="E99" s="47"/>
+      <c r="E99" s="49"/>
       <c r="F99" s="46"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9069,7 +9103,7 @@
       <c r="B100" s="43"/>
       <c r="C100" s="1"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="47"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="46"/>
     </row>
   </sheetData>
